--- a/Code/Results/Cases/Case_0_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9323099809123991</v>
+        <v>1.10747583238813</v>
       </c>
       <c r="D2">
-        <v>0.9481237968356437</v>
+        <v>1.109065147348365</v>
       </c>
       <c r="E2">
-        <v>0.9505268824475654</v>
+        <v>1.106216010620477</v>
       </c>
       <c r="F2">
-        <v>0.9463612202078323</v>
+        <v>1.114365885490917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031026368381952</v>
+        <v>1.031498234603447</v>
       </c>
       <c r="J2">
-        <v>0.9567226460690682</v>
+        <v>1.112224972927905</v>
       </c>
       <c r="K2">
-        <v>0.9603564993555701</v>
+        <v>1.111665833271221</v>
       </c>
       <c r="L2">
-        <v>0.9627213723950064</v>
+        <v>1.108823755236945</v>
       </c>
       <c r="M2">
-        <v>0.9586221084810068</v>
+        <v>1.11695354222363</v>
       </c>
       <c r="N2">
-        <v>0.9580813019641075</v>
+        <v>1.11380445996345</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9627771218772093</v>
+        <v>1.110857674634002</v>
       </c>
       <c r="D3">
-        <v>0.976369917930465</v>
+        <v>1.112198861315344</v>
       </c>
       <c r="E3">
-        <v>0.9778371472019971</v>
+        <v>1.109247021146085</v>
       </c>
       <c r="F3">
-        <v>0.9764290301179472</v>
+        <v>1.11758243941636</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036872212963086</v>
+        <v>1.031820444163201</v>
       </c>
       <c r="J3">
-        <v>0.9843366504828117</v>
+        <v>1.115267425907758</v>
       </c>
       <c r="K3">
-        <v>0.9873143532668146</v>
+        <v>1.114617726851672</v>
       </c>
       <c r="L3">
-        <v>0.988761686259466</v>
+        <v>1.111672646204427</v>
       </c>
       <c r="M3">
-        <v>0.9873726624122956</v>
+        <v>1.119989075358422</v>
       </c>
       <c r="N3">
-        <v>0.9857345214314894</v>
+        <v>1.116851233575509</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9798533751778846</v>
+        <v>1.113019560727219</v>
       </c>
       <c r="D4">
-        <v>0.9921984008935509</v>
+        <v>1.114200834055735</v>
       </c>
       <c r="E4">
-        <v>0.9931441183405506</v>
+        <v>1.111183350419882</v>
       </c>
       <c r="F4">
-        <v>0.9932315873729869</v>
+        <v>1.119633968715179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04010139889684</v>
+        <v>1.032018224295869</v>
       </c>
       <c r="J4">
-        <v>0.999786861187274</v>
+        <v>1.117210015193638</v>
       </c>
       <c r="K4">
-        <v>1.002391905345638</v>
+        <v>1.116501895288911</v>
       </c>
       <c r="L4">
-        <v>1.00332599820901</v>
+        <v>1.113490958547457</v>
       </c>
       <c r="M4">
-        <v>1.003412393479481</v>
+        <v>1.121923336904248</v>
       </c>
       <c r="N4">
-        <v>1.001206673207316</v>
+        <v>1.118796581560993</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9865551188325836</v>
+        <v>1.11392226319464</v>
       </c>
       <c r="D5">
-        <v>0.9984092606591677</v>
+        <v>1.115036452283791</v>
       </c>
       <c r="E5">
-        <v>0.9991508667716351</v>
+        <v>1.111991561452339</v>
       </c>
       <c r="F5">
-        <v>0.9998145607698631</v>
+        <v>1.120489463005397</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04135561551469</v>
+        <v>1.032098830286184</v>
       </c>
       <c r="J5">
-        <v>1.005844185387459</v>
+        <v>1.118020587778702</v>
       </c>
       <c r="K5">
-        <v>1.008301839248893</v>
+        <v>1.1172879467574</v>
       </c>
       <c r="L5">
-        <v>1.009034693113584</v>
+        <v>1.114249509059834</v>
       </c>
       <c r="M5">
-        <v>1.009690567993215</v>
+        <v>1.122729494183184</v>
       </c>
       <c r="N5">
-        <v>1.00727259950265</v>
+        <v>1.119608305252102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9876556355410124</v>
+        <v>1.114073474660707</v>
       </c>
       <c r="D6">
-        <v>0.9994290874065828</v>
+        <v>1.115176408118562</v>
       </c>
       <c r="E6">
-        <v>1.000137205185796</v>
+        <v>1.112126926452435</v>
       </c>
       <c r="F6">
-        <v>1.000894918102607</v>
+        <v>1.12063270028322</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04156076150161</v>
+        <v>1.03211221604978</v>
       </c>
       <c r="J6">
-        <v>1.006838515064094</v>
+        <v>1.118156333556848</v>
       </c>
       <c r="K6">
-        <v>1.009271899319039</v>
+        <v>1.11741957752257</v>
       </c>
       <c r="L6">
-        <v>1.009971716772167</v>
+        <v>1.1143765329965</v>
       </c>
       <c r="M6">
-        <v>1.010720564115873</v>
+        <v>1.122864445200891</v>
       </c>
       <c r="N6">
-        <v>1.008268341241477</v>
+        <v>1.119744243804823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9799446456495288</v>
+        <v>1.113031646650869</v>
       </c>
       <c r="D7">
-        <v>0.9922829913271464</v>
+        <v>1.114212023046912</v>
       </c>
       <c r="E7">
-        <v>0.9932259269107558</v>
+        <v>1.111194172457661</v>
       </c>
       <c r="F7">
-        <v>0.9933212854009065</v>
+        <v>1.119645427039146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040118534687222</v>
+        <v>1.032019311310106</v>
       </c>
       <c r="J7">
-        <v>0.9998693803735864</v>
+        <v>1.117220869843297</v>
       </c>
       <c r="K7">
-        <v>1.002472421772339</v>
+        <v>1.116512422137381</v>
       </c>
       <c r="L7">
-        <v>1.003403773286886</v>
+        <v>1.113501117206632</v>
       </c>
       <c r="M7">
-        <v>1.003497961810411</v>
+        <v>1.121934136139504</v>
       </c>
       <c r="N7">
-        <v>1.001289309580338</v>
+        <v>1.118807451625499</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9432737610582809</v>
+        <v>1.108624307087935</v>
       </c>
       <c r="D8">
-        <v>0.958288582990961</v>
+        <v>1.110129626587055</v>
       </c>
       <c r="E8">
-        <v>0.9603540709605531</v>
+        <v>1.107245609314728</v>
       </c>
       <c r="F8">
-        <v>0.9571931457657483</v>
+        <v>1.115459205677604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033139336293683</v>
+        <v>1.03160935919392</v>
       </c>
       <c r="J8">
-        <v>0.9666659825691452</v>
+        <v>1.113258677828044</v>
       </c>
       <c r="K8">
-        <v>0.9700648614425214</v>
+        <v>1.112668894442869</v>
       </c>
       <c r="L8">
-        <v>0.9720992701218978</v>
+        <v>1.109791838815323</v>
       </c>
       <c r="M8">
-        <v>0.9689859765463495</v>
+        <v>1.117985710356761</v>
       </c>
       <c r="N8">
-        <v>0.9680387591425313</v>
+        <v>1.114839632843115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8402814968747425</v>
+        <v>1.100648210693009</v>
       </c>
       <c r="D9">
-        <v>0.8628599472512054</v>
+        <v>1.102731522365761</v>
       </c>
       <c r="E9">
-        <v>0.8681382430789648</v>
+        <v>1.100089803111166</v>
       </c>
       <c r="F9">
-        <v>0.8550681680702348</v>
+        <v>1.107846620736463</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.013245062614229</v>
+        <v>1.030803809455026</v>
       </c>
       <c r="J9">
-        <v>0.8730807176053357</v>
+        <v>1.106069917850919</v>
       </c>
       <c r="K9">
-        <v>0.8786536248382244</v>
+        <v>1.105690750142487</v>
       </c>
       <c r="L9">
-        <v>0.8838068050232611</v>
+        <v>1.103056571024624</v>
       </c>
       <c r="M9">
-        <v>0.8710503409617839</v>
+        <v>1.110791359663047</v>
       </c>
       <c r="N9">
-        <v>0.8743205923680933</v>
+        <v>1.10764066400226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8402814968747425</v>
+        <v>1.095178559385279</v>
       </c>
       <c r="D10">
-        <v>0.8628599472512054</v>
+        <v>1.097651526156541</v>
       </c>
       <c r="E10">
-        <v>0.8681382430789648</v>
+        <v>1.095176042395697</v>
       </c>
       <c r="F10">
-        <v>0.8550681680702348</v>
+        <v>1.102601637729324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013245062614229</v>
+        <v>1.03020917183332</v>
       </c>
       <c r="J10">
-        <v>0.8730807176053357</v>
+        <v>1.10112791892891</v>
       </c>
       <c r="K10">
-        <v>0.8786536248382244</v>
+        <v>1.100890406594694</v>
       </c>
       <c r="L10">
-        <v>0.8838068050232611</v>
+        <v>1.098422732192612</v>
       </c>
       <c r="M10">
-        <v>0.8710503409617839</v>
+        <v>1.105825017059328</v>
       </c>
       <c r="N10">
-        <v>0.8743205923680933</v>
+        <v>1.102691646874927</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8402814968747425</v>
+        <v>1.092771391597898</v>
       </c>
       <c r="D11">
-        <v>0.8628599472512054</v>
+        <v>1.095414271222653</v>
       </c>
       <c r="E11">
-        <v>0.8681382430789648</v>
+        <v>1.093011968644956</v>
       </c>
       <c r="F11">
-        <v>0.8550681680702348</v>
+        <v>1.100287529848434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.013245062614229</v>
+        <v>1.029937613795872</v>
       </c>
       <c r="J11">
-        <v>0.8730807176053357</v>
+        <v>1.098950068944764</v>
       </c>
       <c r="K11">
-        <v>0.8786536248382244</v>
+        <v>1.098774242956535</v>
       </c>
       <c r="L11">
-        <v>0.8838068050232611</v>
+        <v>1.096379835774215</v>
       </c>
       <c r="M11">
-        <v>0.8710503409617839</v>
+        <v>1.103631601207713</v>
       </c>
       <c r="N11">
-        <v>0.8743205923680933</v>
+        <v>1.100510704094</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8402814968747425</v>
+        <v>1.091871200329811</v>
       </c>
       <c r="D12">
-        <v>0.8628599472512054</v>
+        <v>1.094577386249764</v>
       </c>
       <c r="E12">
-        <v>0.8681382430789648</v>
+        <v>1.092202454254562</v>
       </c>
       <c r="F12">
-        <v>0.8550681680702348</v>
+        <v>1.099421267338795</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013245062614229</v>
+        <v>1.029834592565806</v>
       </c>
       <c r="J12">
-        <v>0.8730807176053357</v>
+        <v>1.098135199134767</v>
       </c>
       <c r="K12">
-        <v>0.8786536248382244</v>
+        <v>1.097982343268249</v>
       </c>
       <c r="L12">
-        <v>0.8838068050232611</v>
+        <v>1.095615333777759</v>
       </c>
       <c r="M12">
-        <v>0.8710503409617839</v>
+        <v>1.102810182102769</v>
       </c>
       <c r="N12">
-        <v>0.8743205923680933</v>
+        <v>1.099694677075406</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8402814968747425</v>
+        <v>1.092064572659245</v>
       </c>
       <c r="D13">
-        <v>0.8628599472512054</v>
+        <v>1.094757170188492</v>
       </c>
       <c r="E13">
-        <v>0.8681382430789648</v>
+        <v>1.092376358485656</v>
       </c>
       <c r="F13">
-        <v>0.8550681680702348</v>
+        <v>1.099607390757046</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013245062614229</v>
+        <v>1.029856789004804</v>
       </c>
       <c r="J13">
-        <v>0.8730807176053357</v>
+        <v>1.098310262999106</v>
       </c>
       <c r="K13">
-        <v>0.8786536248382244</v>
+        <v>1.098152477303664</v>
       </c>
       <c r="L13">
-        <v>0.8838068050232611</v>
+        <v>1.095779582514214</v>
       </c>
       <c r="M13">
-        <v>0.8710503409617839</v>
+        <v>1.102986685751403</v>
       </c>
       <c r="N13">
-        <v>0.8743205923680933</v>
+        <v>1.099869989550513</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8402814968747425</v>
+        <v>1.092697106578651</v>
       </c>
       <c r="D14">
-        <v>0.8628599472512054</v>
+        <v>1.095345215097212</v>
       </c>
       <c r="E14">
-        <v>0.8681382430789648</v>
+        <v>1.092945171103858</v>
       </c>
       <c r="F14">
-        <v>0.8550681680702348</v>
+        <v>1.100216062423763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013245062614229</v>
+        <v>1.029929142165031</v>
       </c>
       <c r="J14">
-        <v>0.8730807176053357</v>
+        <v>1.098882833618013</v>
       </c>
       <c r="K14">
-        <v>0.8786536248382244</v>
+        <v>1.098708905155282</v>
       </c>
       <c r="L14">
-        <v>0.8838068050232611</v>
+        <v>1.096316758898625</v>
       </c>
       <c r="M14">
-        <v>0.8710503409617839</v>
+        <v>1.103563840244992</v>
       </c>
       <c r="N14">
-        <v>0.8743205923680933</v>
+        <v>1.100443373285374</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8402814968747425</v>
+        <v>1.093086021057125</v>
       </c>
       <c r="D15">
-        <v>0.8628599472512054</v>
+        <v>1.095706744454911</v>
       </c>
       <c r="E15">
-        <v>0.8681382430789648</v>
+        <v>1.093294875933609</v>
       </c>
       <c r="F15">
-        <v>0.8550681680702348</v>
+        <v>1.100590189952561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013245062614229</v>
+        <v>1.029973434943167</v>
       </c>
       <c r="J15">
-        <v>0.8730807176053357</v>
+        <v>1.09923482212441</v>
       </c>
       <c r="K15">
-        <v>0.8786536248382244</v>
+        <v>1.099050955275323</v>
       </c>
       <c r="L15">
-        <v>0.8838068050232611</v>
+        <v>1.096646972024865</v>
       </c>
       <c r="M15">
-        <v>0.8710503409617839</v>
+        <v>1.10391855094653</v>
       </c>
       <c r="N15">
-        <v>0.8743205923680933</v>
+        <v>1.100795861655823</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8402814968747425</v>
+        <v>1.095337478332475</v>
       </c>
       <c r="D16">
-        <v>0.8628599472512054</v>
+        <v>1.09779919482401</v>
       </c>
       <c r="E16">
-        <v>0.8681382430789648</v>
+        <v>1.095318880188491</v>
       </c>
       <c r="F16">
-        <v>0.8550681680702348</v>
+        <v>1.102754291345926</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013245062614229</v>
+        <v>1.030226894512538</v>
       </c>
       <c r="J16">
-        <v>0.8730807176053357</v>
+        <v>1.101271637899493</v>
       </c>
       <c r="K16">
-        <v>0.8786536248382244</v>
+        <v>1.101030039386662</v>
       </c>
       <c r="L16">
-        <v>0.8838068050232611</v>
+        <v>1.098557527734568</v>
       </c>
       <c r="M16">
-        <v>0.8710503409617839</v>
+        <v>1.105969662168249</v>
       </c>
       <c r="N16">
-        <v>0.8743205923680933</v>
+        <v>1.102835569942932</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8402814968747425</v>
+        <v>1.096739213818591</v>
       </c>
       <c r="D17">
-        <v>0.8628599472512054</v>
+        <v>1.099101517930718</v>
       </c>
       <c r="E17">
-        <v>0.8681382430789648</v>
+        <v>1.096578595362848</v>
       </c>
       <c r="F17">
-        <v>0.8550681680702348</v>
+        <v>1.104100097946788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.013245062614229</v>
+        <v>1.030382088538029</v>
       </c>
       <c r="J17">
-        <v>0.8730807176053357</v>
+        <v>1.102538970851501</v>
       </c>
       <c r="K17">
-        <v>0.8786536248382244</v>
+        <v>1.1022612553789</v>
       </c>
       <c r="L17">
-        <v>0.8838068050232611</v>
+        <v>1.099746075821565</v>
       </c>
       <c r="M17">
-        <v>0.8710503409617839</v>
+        <v>1.10724460840437</v>
       </c>
       <c r="N17">
-        <v>0.8743205923680933</v>
+        <v>1.104104702653097</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8402814968747425</v>
+        <v>1.097553097994781</v>
       </c>
       <c r="D18">
-        <v>0.8628599472512054</v>
+        <v>1.099857530328566</v>
       </c>
       <c r="E18">
-        <v>0.8681382430789648</v>
+        <v>1.097309870541209</v>
       </c>
       <c r="F18">
-        <v>0.8550681680702348</v>
+        <v>1.10488095255173</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013245062614229</v>
+        <v>1.030471255125722</v>
       </c>
       <c r="J18">
-        <v>0.8730807176053357</v>
+        <v>1.103274540298478</v>
       </c>
       <c r="K18">
-        <v>0.8786536248382244</v>
+        <v>1.102975791725912</v>
       </c>
       <c r="L18">
-        <v>0.8838068050232611</v>
+        <v>1.100435837039599</v>
       </c>
       <c r="M18">
-        <v>0.8710503409617839</v>
+        <v>1.107984134611951</v>
       </c>
       <c r="N18">
-        <v>0.8743205923680933</v>
+        <v>1.104841316693061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8402814968747425</v>
+        <v>1.097829986744222</v>
       </c>
       <c r="D19">
-        <v>0.8628599472512054</v>
+        <v>1.10011470516991</v>
       </c>
       <c r="E19">
-        <v>0.8681382430789648</v>
+        <v>1.097558629958568</v>
       </c>
       <c r="F19">
-        <v>0.8550681680702348</v>
+        <v>1.105146510098162</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013245062614229</v>
+        <v>1.030501429825703</v>
       </c>
       <c r="J19">
-        <v>0.8730807176053357</v>
+        <v>1.103524738833968</v>
       </c>
       <c r="K19">
-        <v>0.8786536248382244</v>
+        <v>1.10321882402896</v>
       </c>
       <c r="L19">
-        <v>0.8838068050232611</v>
+        <v>1.100670440503527</v>
       </c>
       <c r="M19">
-        <v>0.8710503409617839</v>
+        <v>1.108235600581974</v>
       </c>
       <c r="N19">
-        <v>0.8743205923680933</v>
+        <v>1.105091870539168</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8402814968747425</v>
+        <v>1.096589207776606</v>
       </c>
       <c r="D20">
-        <v>0.8628599472512054</v>
+        <v>1.098962166025406</v>
       </c>
       <c r="E20">
-        <v>0.8681382430789648</v>
+        <v>1.096443802909609</v>
       </c>
       <c r="F20">
-        <v>0.8550681680702348</v>
+        <v>1.103956134686381</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.013245062614229</v>
+        <v>1.030365578155125</v>
       </c>
       <c r="J20">
-        <v>0.8730807176053357</v>
+        <v>1.102403376539563</v>
       </c>
       <c r="K20">
-        <v>0.8786536248382244</v>
+        <v>1.102129532596097</v>
       </c>
       <c r="L20">
-        <v>0.8838068050232611</v>
+        <v>1.099618919230093</v>
       </c>
       <c r="M20">
-        <v>0.8710503409617839</v>
+        <v>1.107108247402946</v>
       </c>
       <c r="N20">
-        <v>0.8743205923680933</v>
+        <v>1.103968915781683</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8402814968747425</v>
+        <v>1.092511010404611</v>
       </c>
       <c r="D21">
-        <v>0.8628599472512054</v>
+        <v>1.095172214379103</v>
       </c>
       <c r="E21">
-        <v>0.8681382430789648</v>
+        <v>1.092777828568542</v>
       </c>
       <c r="F21">
-        <v>0.8550681680702348</v>
+        <v>1.100037010725214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013245062614229</v>
+        <v>1.029907895696273</v>
       </c>
       <c r="J21">
-        <v>0.8730807176053357</v>
+        <v>1.098714391070324</v>
       </c>
       <c r="K21">
-        <v>0.8786536248382244</v>
+        <v>1.098545214636258</v>
       </c>
       <c r="L21">
-        <v>0.8838068050232611</v>
+        <v>1.096158732345445</v>
       </c>
       <c r="M21">
-        <v>0.8710503409617839</v>
+        <v>1.103394069150196</v>
       </c>
       <c r="N21">
-        <v>0.8743205923680933</v>
+        <v>1.100274691529946</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8402814968747425</v>
+        <v>1.089911687483537</v>
       </c>
       <c r="D22">
-        <v>0.8628599472512054</v>
+        <v>1.092755247742033</v>
       </c>
       <c r="E22">
-        <v>0.8681382430789648</v>
+        <v>1.090439902122848</v>
       </c>
       <c r="F22">
-        <v>0.8550681680702348</v>
+        <v>1.097534011248427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013245062614229</v>
+        <v>1.029607658605537</v>
       </c>
       <c r="J22">
-        <v>0.8730807176053357</v>
+        <v>1.096360614810129</v>
       </c>
       <c r="K22">
-        <v>0.8786536248382244</v>
+        <v>1.096257579627615</v>
       </c>
       <c r="L22">
-        <v>0.8838068050232611</v>
+        <v>1.093950206019811</v>
       </c>
       <c r="M22">
-        <v>0.8710503409617839</v>
+        <v>1.101020006214189</v>
       </c>
       <c r="N22">
-        <v>0.8743205923680933</v>
+        <v>1.097917572637479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8402814968747425</v>
+        <v>1.091293056228168</v>
       </c>
       <c r="D23">
-        <v>0.8628599472512054</v>
+        <v>1.094039834398723</v>
       </c>
       <c r="E23">
-        <v>0.8681382430789648</v>
+        <v>1.091682482078913</v>
       </c>
       <c r="F23">
-        <v>0.8550681680702348</v>
+        <v>1.098864668352542</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013245062614229</v>
+        <v>1.029768015552732</v>
       </c>
       <c r="J23">
-        <v>0.8730807176053357</v>
+        <v>1.097611729983918</v>
       </c>
       <c r="K23">
-        <v>0.8786536248382244</v>
+        <v>1.097473598925341</v>
       </c>
       <c r="L23">
-        <v>0.8838068050232611</v>
+        <v>1.095124185070369</v>
       </c>
       <c r="M23">
-        <v>0.8710503409617839</v>
+        <v>1.102282301657444</v>
       </c>
       <c r="N23">
-        <v>0.8743205923680933</v>
+        <v>1.09917046453832</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8402814968747425</v>
+        <v>1.096657000543414</v>
       </c>
       <c r="D24">
-        <v>0.8628599472512054</v>
+        <v>1.099025144295798</v>
       </c>
       <c r="E24">
-        <v>0.8681382430789648</v>
+        <v>1.096504720604177</v>
       </c>
       <c r="F24">
-        <v>0.8550681680702348</v>
+        <v>1.104021198238322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013245062614229</v>
+        <v>1.030373042672571</v>
       </c>
       <c r="J24">
-        <v>0.8730807176053357</v>
+        <v>1.102464657019756</v>
       </c>
       <c r="K24">
-        <v>0.8786536248382244</v>
+        <v>1.102189063596287</v>
       </c>
       <c r="L24">
-        <v>0.8838068050232611</v>
+        <v>1.099676386618309</v>
       </c>
       <c r="M24">
-        <v>0.8710503409617839</v>
+        <v>1.107169875811678</v>
       </c>
       <c r="N24">
-        <v>0.8743205923680933</v>
+        <v>1.104030283287188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8402814968747425</v>
+        <v>1.102736205480099</v>
       </c>
       <c r="D25">
-        <v>0.8628599472512054</v>
+        <v>1.104669382301452</v>
       </c>
       <c r="E25">
-        <v>0.8681382430789648</v>
+        <v>1.101964221290468</v>
       </c>
       <c r="F25">
-        <v>0.8550681680702348</v>
+        <v>1.109843744704099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.013245062614229</v>
+        <v>1.031022085661536</v>
       </c>
       <c r="J25">
-        <v>0.8730807176053357</v>
+        <v>1.107953940420296</v>
       </c>
       <c r="K25">
-        <v>0.8786536248382244</v>
+        <v>1.107520121260354</v>
       </c>
       <c r="L25">
-        <v>0.8838068050232611</v>
+        <v>1.104822370404422</v>
       </c>
       <c r="M25">
-        <v>0.8710503409617839</v>
+        <v>1.112680418627366</v>
       </c>
       <c r="N25">
-        <v>0.8743205923680933</v>
+        <v>1.109527362099786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.10747583238813</v>
+        <v>0.932309980912397</v>
       </c>
       <c r="D2">
-        <v>1.109065147348365</v>
+        <v>0.9481237968356416</v>
       </c>
       <c r="E2">
-        <v>1.106216010620477</v>
+        <v>0.9505268824475633</v>
       </c>
       <c r="F2">
-        <v>1.114365885490917</v>
+        <v>0.9463612202078303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031498234603447</v>
+        <v>1.031026368381952</v>
       </c>
       <c r="J2">
-        <v>1.112224972927905</v>
+        <v>0.9567226460690661</v>
       </c>
       <c r="K2">
-        <v>1.111665833271221</v>
+        <v>0.9603564993555678</v>
       </c>
       <c r="L2">
-        <v>1.108823755236945</v>
+        <v>0.9627213723950043</v>
       </c>
       <c r="M2">
-        <v>1.11695354222363</v>
+        <v>0.9586221084810048</v>
       </c>
       <c r="N2">
-        <v>1.11380445996345</v>
+        <v>0.9580813019641055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.110857674634002</v>
+        <v>0.9627771218772075</v>
       </c>
       <c r="D3">
-        <v>1.112198861315344</v>
+        <v>0.9763699179304633</v>
       </c>
       <c r="E3">
-        <v>1.109247021146085</v>
+        <v>0.9778371472019954</v>
       </c>
       <c r="F3">
-        <v>1.11758243941636</v>
+        <v>0.9764290301179456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031820444163201</v>
+        <v>1.036872212963086</v>
       </c>
       <c r="J3">
-        <v>1.115267425907758</v>
+        <v>0.98433665048281</v>
       </c>
       <c r="K3">
-        <v>1.114617726851672</v>
+        <v>0.9873143532668129</v>
       </c>
       <c r="L3">
-        <v>1.111672646204427</v>
+        <v>0.9887616862594643</v>
       </c>
       <c r="M3">
-        <v>1.119989075358422</v>
+        <v>0.9873726624122939</v>
       </c>
       <c r="N3">
-        <v>1.116851233575509</v>
+        <v>0.9857345214314874</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.113019560727219</v>
+        <v>0.9798533751778856</v>
       </c>
       <c r="D4">
-        <v>1.114200834055735</v>
+        <v>0.9921984008935519</v>
       </c>
       <c r="E4">
-        <v>1.111183350419882</v>
+        <v>0.9931441183405515</v>
       </c>
       <c r="F4">
-        <v>1.119633968715179</v>
+        <v>0.9932315873729879</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032018224295869</v>
+        <v>1.04010139889684</v>
       </c>
       <c r="J4">
-        <v>1.117210015193638</v>
+        <v>0.9997868611872751</v>
       </c>
       <c r="K4">
-        <v>1.116501895288911</v>
+        <v>1.002391905345639</v>
       </c>
       <c r="L4">
-        <v>1.113490958547457</v>
+        <v>1.003325998209011</v>
       </c>
       <c r="M4">
-        <v>1.121923336904248</v>
+        <v>1.003412393479482</v>
       </c>
       <c r="N4">
-        <v>1.118796581560993</v>
+        <v>1.001206673207317</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.11392226319464</v>
+        <v>0.9865551188325818</v>
       </c>
       <c r="D5">
-        <v>1.115036452283791</v>
+        <v>0.9984092606591659</v>
       </c>
       <c r="E5">
-        <v>1.111991561452339</v>
+        <v>0.9991508667716331</v>
       </c>
       <c r="F5">
-        <v>1.120489463005397</v>
+        <v>0.9998145607698612</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032098830286184</v>
+        <v>1.041355615514689</v>
       </c>
       <c r="J5">
-        <v>1.118020587778702</v>
+        <v>1.005844185387458</v>
       </c>
       <c r="K5">
-        <v>1.1172879467574</v>
+        <v>1.008301839248891</v>
       </c>
       <c r="L5">
-        <v>1.114249509059834</v>
+        <v>1.009034693113582</v>
       </c>
       <c r="M5">
-        <v>1.122729494183184</v>
+        <v>1.009690567993213</v>
       </c>
       <c r="N5">
-        <v>1.119608305252102</v>
+        <v>1.007272599502648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.114073474660707</v>
+        <v>0.9876556355410114</v>
       </c>
       <c r="D6">
-        <v>1.115176408118562</v>
+        <v>0.999429087406582</v>
       </c>
       <c r="E6">
-        <v>1.112126926452435</v>
+        <v>1.000137205185795</v>
       </c>
       <c r="F6">
-        <v>1.12063270028322</v>
+        <v>1.000894918102606</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03211221604978</v>
+        <v>1.041560761501609</v>
       </c>
       <c r="J6">
-        <v>1.118156333556848</v>
+        <v>1.006838515064093</v>
       </c>
       <c r="K6">
-        <v>1.11741957752257</v>
+        <v>1.009271899319039</v>
       </c>
       <c r="L6">
-        <v>1.1143765329965</v>
+        <v>1.009971716772166</v>
       </c>
       <c r="M6">
-        <v>1.122864445200891</v>
+        <v>1.010720564115872</v>
       </c>
       <c r="N6">
-        <v>1.119744243804823</v>
+        <v>1.008268341241476</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.113031646650869</v>
+        <v>0.9799446456495233</v>
       </c>
       <c r="D7">
-        <v>1.114212023046912</v>
+        <v>0.9922829913271408</v>
       </c>
       <c r="E7">
-        <v>1.111194172457661</v>
+        <v>0.9932259269107508</v>
       </c>
       <c r="F7">
-        <v>1.119645427039146</v>
+        <v>0.9933212854009009</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032019311310106</v>
+        <v>1.040118534687222</v>
       </c>
       <c r="J7">
-        <v>1.117220869843297</v>
+        <v>0.9998693803735811</v>
       </c>
       <c r="K7">
-        <v>1.116512422137381</v>
+        <v>1.002472421772334</v>
       </c>
       <c r="L7">
-        <v>1.113501117206632</v>
+        <v>1.003403773286881</v>
       </c>
       <c r="M7">
-        <v>1.121934136139504</v>
+        <v>1.003497961810405</v>
       </c>
       <c r="N7">
-        <v>1.118807451625499</v>
+        <v>1.001289309580332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.108624307087935</v>
+        <v>0.9432737610582802</v>
       </c>
       <c r="D8">
-        <v>1.110129626587055</v>
+        <v>0.9582885829909606</v>
       </c>
       <c r="E8">
-        <v>1.107245609314728</v>
+        <v>0.9603540709605524</v>
       </c>
       <c r="F8">
-        <v>1.115459205677604</v>
+        <v>0.957193145765748</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03160935919392</v>
+        <v>1.033139336293683</v>
       </c>
       <c r="J8">
-        <v>1.113258677828044</v>
+        <v>0.9666659825691444</v>
       </c>
       <c r="K8">
-        <v>1.112668894442869</v>
+        <v>0.9700648614425212</v>
       </c>
       <c r="L8">
-        <v>1.109791838815323</v>
+        <v>0.972099270121897</v>
       </c>
       <c r="M8">
-        <v>1.117985710356761</v>
+        <v>0.9689859765463489</v>
       </c>
       <c r="N8">
-        <v>1.114839632843115</v>
+        <v>0.9680387591425305</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.100648210693009</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D9">
-        <v>1.102731522365761</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E9">
-        <v>1.100089803111166</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F9">
-        <v>1.107846620736463</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030803809455026</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J9">
-        <v>1.106069917850919</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K9">
-        <v>1.105690750142487</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L9">
-        <v>1.103056571024624</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M9">
-        <v>1.110791359663047</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N9">
-        <v>1.10764066400226</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.095178559385279</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D10">
-        <v>1.097651526156541</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E10">
-        <v>1.095176042395697</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F10">
-        <v>1.102601637729324</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03020917183332</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J10">
-        <v>1.10112791892891</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K10">
-        <v>1.100890406594694</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L10">
-        <v>1.098422732192612</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M10">
-        <v>1.105825017059328</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N10">
-        <v>1.102691646874927</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.092771391597898</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D11">
-        <v>1.095414271222653</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E11">
-        <v>1.093011968644956</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F11">
-        <v>1.100287529848434</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029937613795872</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J11">
-        <v>1.098950068944764</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K11">
-        <v>1.098774242956535</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L11">
-        <v>1.096379835774215</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M11">
-        <v>1.103631601207713</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N11">
-        <v>1.100510704094</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.091871200329811</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D12">
-        <v>1.094577386249764</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E12">
-        <v>1.092202454254562</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F12">
-        <v>1.099421267338795</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029834592565806</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J12">
-        <v>1.098135199134767</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K12">
-        <v>1.097982343268249</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L12">
-        <v>1.095615333777759</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M12">
-        <v>1.102810182102769</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N12">
-        <v>1.099694677075406</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.092064572659245</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D13">
-        <v>1.094757170188492</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E13">
-        <v>1.092376358485656</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F13">
-        <v>1.099607390757046</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029856789004804</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J13">
-        <v>1.098310262999106</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K13">
-        <v>1.098152477303664</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L13">
-        <v>1.095779582514214</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M13">
-        <v>1.102986685751403</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N13">
-        <v>1.099869989550513</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.092697106578651</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D14">
-        <v>1.095345215097212</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E14">
-        <v>1.092945171103858</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F14">
-        <v>1.100216062423763</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029929142165031</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J14">
-        <v>1.098882833618013</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K14">
-        <v>1.098708905155282</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L14">
-        <v>1.096316758898625</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M14">
-        <v>1.103563840244992</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N14">
-        <v>1.100443373285374</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.093086021057125</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D15">
-        <v>1.095706744454911</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E15">
-        <v>1.093294875933609</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F15">
-        <v>1.100590189952561</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029973434943167</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J15">
-        <v>1.09923482212441</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K15">
-        <v>1.099050955275323</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L15">
-        <v>1.096646972024865</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M15">
-        <v>1.10391855094653</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N15">
-        <v>1.100795861655823</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.095337478332475</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D16">
-        <v>1.09779919482401</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E16">
-        <v>1.095318880188491</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F16">
-        <v>1.102754291345926</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030226894512538</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J16">
-        <v>1.101271637899493</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K16">
-        <v>1.101030039386662</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L16">
-        <v>1.098557527734568</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M16">
-        <v>1.105969662168249</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N16">
-        <v>1.102835569942932</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.096739213818591</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D17">
-        <v>1.099101517930718</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E17">
-        <v>1.096578595362848</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F17">
-        <v>1.104100097946788</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030382088538029</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J17">
-        <v>1.102538970851501</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K17">
-        <v>1.1022612553789</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L17">
-        <v>1.099746075821565</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M17">
-        <v>1.10724460840437</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N17">
-        <v>1.104104702653097</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.097553097994781</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D18">
-        <v>1.099857530328566</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E18">
-        <v>1.097309870541209</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F18">
-        <v>1.10488095255173</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030471255125722</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J18">
-        <v>1.103274540298478</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K18">
-        <v>1.102975791725912</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L18">
-        <v>1.100435837039599</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M18">
-        <v>1.107984134611951</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N18">
-        <v>1.104841316693061</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.097829986744222</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D19">
-        <v>1.10011470516991</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E19">
-        <v>1.097558629958568</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F19">
-        <v>1.105146510098162</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030501429825703</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J19">
-        <v>1.103524738833968</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K19">
-        <v>1.10321882402896</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L19">
-        <v>1.100670440503527</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M19">
-        <v>1.108235600581974</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N19">
-        <v>1.105091870539168</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.096589207776606</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D20">
-        <v>1.098962166025406</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E20">
-        <v>1.096443802909609</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F20">
-        <v>1.103956134686381</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030365578155125</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J20">
-        <v>1.102403376539563</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K20">
-        <v>1.102129532596097</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L20">
-        <v>1.099618919230093</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M20">
-        <v>1.107108247402946</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N20">
-        <v>1.103968915781683</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.092511010404611</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D21">
-        <v>1.095172214379103</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E21">
-        <v>1.092777828568542</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F21">
-        <v>1.100037010725214</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029907895696273</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J21">
-        <v>1.098714391070324</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K21">
-        <v>1.098545214636258</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L21">
-        <v>1.096158732345445</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M21">
-        <v>1.103394069150196</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N21">
-        <v>1.100274691529946</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.089911687483537</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D22">
-        <v>1.092755247742033</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E22">
-        <v>1.090439902122848</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F22">
-        <v>1.097534011248427</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029607658605537</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J22">
-        <v>1.096360614810129</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K22">
-        <v>1.096257579627615</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L22">
-        <v>1.093950206019811</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M22">
-        <v>1.101020006214189</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N22">
-        <v>1.097917572637479</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.091293056228168</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D23">
-        <v>1.094039834398723</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E23">
-        <v>1.091682482078913</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F23">
-        <v>1.098864668352542</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029768015552732</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J23">
-        <v>1.097611729983918</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K23">
-        <v>1.097473598925341</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L23">
-        <v>1.095124185070369</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M23">
-        <v>1.102282301657444</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N23">
-        <v>1.09917046453832</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.096657000543414</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D24">
-        <v>1.099025144295798</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E24">
-        <v>1.096504720604177</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F24">
-        <v>1.104021198238322</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030373042672571</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J24">
-        <v>1.102464657019756</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K24">
-        <v>1.102189063596287</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L24">
-        <v>1.099676386618309</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M24">
-        <v>1.107169875811678</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N24">
-        <v>1.104030283287188</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.102736205480099</v>
+        <v>0.8402814968747538</v>
       </c>
       <c r="D25">
-        <v>1.104669382301452</v>
+        <v>0.8628599472512162</v>
       </c>
       <c r="E25">
-        <v>1.101964221290468</v>
+        <v>0.8681382430789749</v>
       </c>
       <c r="F25">
-        <v>1.109843744704099</v>
+        <v>0.8550681680702455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031022085661536</v>
+        <v>1.01324506261423</v>
       </c>
       <c r="J25">
-        <v>1.107953940420296</v>
+        <v>0.8730807176053464</v>
       </c>
       <c r="K25">
-        <v>1.107520121260354</v>
+        <v>0.8786536248382349</v>
       </c>
       <c r="L25">
-        <v>1.104822370404422</v>
+        <v>0.883806805023271</v>
       </c>
       <c r="M25">
-        <v>1.112680418627366</v>
+        <v>0.8710503409617947</v>
       </c>
       <c r="N25">
-        <v>1.109527362099786</v>
+        <v>0.8743205923681042</v>
       </c>
     </row>
   </sheetData>
